--- a/backend/data/temp.xlsx
+++ b/backend/data/temp.xlsx
@@ -1715,7 +1715,7 @@
     <t>https://gtc.ieu.link/app/foto-destinasi/bali.jpeg</t>
   </si>
   <si>
-    <t>https://gtc.ieu.link/app/foto-destinasi/denpasar.j.</t>
+    <t>https://gtc.ieu.link/app/foto-destinasi/denpasar.jpeg</t>
   </si>
   <si>
     <t>https://gtc.ieu.link/app/foto-destinasi/padawa-bali.jpg</t>

--- a/backend/data/temp.xlsx
+++ b/backend/data/temp.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="572">
   <si>
     <t>NO</t>
   </si>
@@ -1628,85 +1628,88 @@
     <t>ZAHRANI AULIA</t>
   </si>
   <si>
-    <t>WALIKELAS-1</t>
+    <t>19750822-200801-1-004</t>
+  </si>
+  <si>
+    <t>Rikomar Zainudin, S.Pd</t>
+  </si>
+  <si>
+    <t>WALAS-11-MIPA-2</t>
+  </si>
+  <si>
+    <t>SULVIANA DALE, M.Pd</t>
+  </si>
+  <si>
+    <t>WALAS-11-MIPA-3</t>
+  </si>
+  <si>
+    <t>WIWIN WINDAYANI,S.Pd</t>
+  </si>
+  <si>
+    <t>WALAS-11-MIPA-4</t>
+  </si>
+  <si>
+    <t>SUJIMAN,M.Pd</t>
+  </si>
+  <si>
+    <t>WALAS-11-MIPA-5</t>
+  </si>
+  <si>
+    <t>ULFIAH,S.Pd</t>
+  </si>
+  <si>
+    <t>WALAS-11-MIPA-6</t>
+  </si>
+  <si>
+    <t>ABDULLAH S.Ag</t>
+  </si>
+  <si>
+    <t>WALAS-11-MIPA-7</t>
+  </si>
+  <si>
+    <t>RICHA FITRIYANI S.Pd</t>
+  </si>
+  <si>
+    <t>WALAS-11-IPS-1</t>
+  </si>
+  <si>
+    <t>WARA RETNANINGSIH S.Pd</t>
+  </si>
+  <si>
+    <t>WALAS-11-IPS-2</t>
+  </si>
+  <si>
+    <t>HAULUDIN S.Pd</t>
+  </si>
+  <si>
+    <t>WALAS-11-IPS-3</t>
+  </si>
+  <si>
+    <t>WAHYU HARYO KUNCORO S.Pd</t>
+  </si>
+  <si>
+    <t>WALAS-11-IPS-4</t>
+  </si>
+  <si>
+    <t>DRS YAYA SURYA</t>
+  </si>
+  <si>
+    <t>WALAS-11-IPS-5</t>
+  </si>
+  <si>
+    <t>ESRY FAJRIAH,M.Pd</t>
+  </si>
+  <si>
+    <t>INFORMASI</t>
+  </si>
+  <si>
+    <t>Belum ada Informasi</t>
+  </si>
+  <si>
+    <t>NO WA</t>
   </si>
   <si>
     <t>RIKOMAR ZAINUDIN, S.Pd</t>
-  </si>
-  <si>
-    <t>WALIKELAS-2</t>
-  </si>
-  <si>
-    <t>SULVIANA DALE, M.Pd</t>
-  </si>
-  <si>
-    <t>WALIKELAS-3</t>
-  </si>
-  <si>
-    <t>WIWIN WINDAYANI,S.Pd</t>
-  </si>
-  <si>
-    <t>WALIKELAS-4</t>
-  </si>
-  <si>
-    <t>SUJIMAN,M.Pd</t>
-  </si>
-  <si>
-    <t>WALIKELAS-5</t>
-  </si>
-  <si>
-    <t>ULFIAH,S.Pd</t>
-  </si>
-  <si>
-    <t>WALIKELAS-6</t>
-  </si>
-  <si>
-    <t>ABDULLAH S.Ag</t>
-  </si>
-  <si>
-    <t>WALIKELAS-7</t>
-  </si>
-  <si>
-    <t>RICHA FITRIYANI S.Pd</t>
-  </si>
-  <si>
-    <t>WALIKELAS-8</t>
-  </si>
-  <si>
-    <t>WARA RETNANINGSIH S.Pd</t>
-  </si>
-  <si>
-    <t>WALIKELAS-9</t>
-  </si>
-  <si>
-    <t>HAULUDIN S.Pd</t>
-  </si>
-  <si>
-    <t>WALIKELAS-10</t>
-  </si>
-  <si>
-    <t>WAHYU HARYO KUNCORO S.Pd</t>
-  </si>
-  <si>
-    <t>WALIKELAS-11</t>
-  </si>
-  <si>
-    <t>DRS YAYA SURYA</t>
-  </si>
-  <si>
-    <t>WALIKELAS-12</t>
-  </si>
-  <si>
-    <t>ESRY FAJRIAH,M.Pd</t>
-  </si>
-  <si>
-    <t>INFORMASI</t>
-  </si>
-  <si>
-    <t>Belum ada Informasi</t>
-  </si>
-  <si>
-    <t>NO WA</t>
   </si>
   <si>
     <t>LINK</t>
@@ -10173,7 +10176,7 @@
         <v>6281283171617</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>538</v>
+        <v>564</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>5</v>
@@ -11765,7 +11768,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -11796,7 +11799,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="3">
@@ -11804,7 +11807,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="4">
@@ -11812,7 +11815,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="5">
@@ -11820,7 +11823,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="6">
@@ -11828,7 +11831,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="7">
@@ -11836,7 +11839,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="8">

--- a/backend/data/temp.xlsx
+++ b/backend/data/temp.xlsx
@@ -1634,67 +1634,67 @@
     <t>Rikomar Zainudin, S.Pd</t>
   </si>
   <si>
-    <t>WALAS-11-MIPA-2</t>
+    <t>19680417-199001-2-001</t>
   </si>
   <si>
     <t>SULVIANA DALE, M.Pd</t>
   </si>
   <si>
-    <t>WALAS-11-MIPA-3</t>
+    <t>20231106-231106-0-001</t>
   </si>
   <si>
     <t>WIWIN WINDAYANI,S.Pd</t>
   </si>
   <si>
-    <t>WALAS-11-MIPA-4</t>
+    <t>19750117-200801-1-004</t>
   </si>
   <si>
     <t>SUJIMAN,M.Pd</t>
   </si>
   <si>
-    <t>WALAS-11-MIPA-5</t>
+    <t>19950802-202012-2-018</t>
   </si>
   <si>
     <t>ULFIAH,S.Pd</t>
   </si>
   <si>
-    <t>WALAS-11-MIPA-6</t>
+    <t>19720323-200801-1-007</t>
   </si>
   <si>
     <t>ABDULLAH S.Ag</t>
   </si>
   <si>
-    <t>WALAS-11-MIPA-7</t>
+    <t>20231106-231106-0-002</t>
   </si>
   <si>
     <t>RICHA FITRIYANI S.Pd</t>
   </si>
   <si>
-    <t>WALAS-11-IPS-1</t>
+    <t>19701024-200701-2-004</t>
   </si>
   <si>
     <t>WARA RETNANINGSIH S.Pd</t>
   </si>
   <si>
-    <t>WALAS-11-IPS-2</t>
+    <t>19860214-201001-1-009</t>
   </si>
   <si>
     <t>HAULUDIN S.Pd</t>
   </si>
   <si>
-    <t>WALAS-11-IPS-3</t>
+    <t>20231106-231106-0-005</t>
   </si>
   <si>
     <t>WAHYU HARYO KUNCORO S.Pd</t>
   </si>
   <si>
-    <t>WALAS-11-IPS-4</t>
+    <t>19650203-199303-1-009</t>
   </si>
   <si>
     <t>DRS YAYA SURYA</t>
   </si>
   <si>
-    <t>WALAS-11-IPS-5</t>
+    <t>19781008-200801-2-006</t>
   </si>
   <si>
     <t>ESRY FAJRIAH,M.Pd</t>
@@ -9707,7 +9707,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="6.0"/>
-    <col customWidth="1" min="2" max="2" width="17.63"/>
+    <col customWidth="1" min="2" max="2" width="25.25"/>
     <col customWidth="1" min="3" max="3" width="48.13"/>
     <col customWidth="1" min="4" max="4" width="13.88"/>
   </cols>
